--- a/animal-face porject/API설계서/animal_face_API설계_v002_20200731.xlsx
+++ b/animal-face porject/API설계서/animal_face_API설계_v002_20200731.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\animal-face\API설계서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\animal-face\animal-face porject\API설계서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C69A51-C43A-44CA-A6CD-2133A350C97A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C1CCF6-6F00-41A5-A9FE-FE2941E3FCEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="159">
   <si>
     <t>이름</t>
   </si>
@@ -417,10 +417,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/face_result</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>학습된 데이터 전송</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -475,27 +471,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/admin_delete</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ok</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/admin_delete</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"pk":""</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본키</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -696,105 +672,135 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
+    <t>"model":""</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>model</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/face/result</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"result":{</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"image":"",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"time":"",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>file</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <rFont val="돋움"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>로그인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
+      <t>오류</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <rFont val="돋움"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>비밀번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
+      <t>정상</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양이상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"age":"",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"gender":"",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>성별</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <rFont val="돋움"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>변경</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>통계</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"model":""</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>json</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>model</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/face/result</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"result":{</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"image":"",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"time":"",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>file</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
+      <t>결과값</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>": "</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -802,7 +808,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>오류</t>
+      <t>성격</t>
     </r>
     <r>
       <rPr>
@@ -810,7 +816,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">, </t>
+      <t xml:space="preserve">: </t>
     </r>
     <r>
       <rPr>
@@ -819,49 +825,15 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>정상</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>시간</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>고양이상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이미지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"age":"",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"gender":"",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>나이</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>성별</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"</t>
+      <t>도도하다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
     </r>
     <r>
       <rPr>
@@ -870,7 +842,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>결과값</t>
+      <t>특징</t>
     </r>
     <r>
       <rPr>
@@ -878,7 +850,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>": "</t>
+      <t>:</t>
     </r>
     <r>
       <rPr>
@@ -887,7 +859,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>성격</t>
+      <t>섹시하고</t>
     </r>
     <r>
       <rPr>
@@ -895,7 +867,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">: </t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -904,7 +876,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>도도하다</t>
+      <t>어른스럽다</t>
     </r>
     <r>
       <rPr>
@@ -912,7 +884,13 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">, </t>
+      <t>.",</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
     </r>
     <r>
       <rPr>
@@ -921,7 +899,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>특징</t>
+      <t>수치값</t>
     </r>
     <r>
       <rPr>
@@ -929,7 +907,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>:</t>
+      <t>":"</t>
     </r>
     <r>
       <rPr>
@@ -938,7 +916,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>섹시하고</t>
+      <t>호랑이</t>
     </r>
     <r>
       <rPr>
@@ -946,7 +924,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve">: 74, </t>
     </r>
     <r>
       <rPr>
@@ -955,7 +933,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>어른스럽다</t>
+      <t>고양이</t>
     </r>
     <r>
       <rPr>
@@ -963,14 +941,11 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>.",</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"</t>
-    </r>
+      <t>:26",</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -978,7 +953,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>수치값</t>
+      <t>선택</t>
     </r>
     <r>
       <rPr>
@@ -986,7 +961,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>":"</t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -995,15 +970,13 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>호랑이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">: 74, </t>
+      <t>사항으로</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">png, pdf </t>
     </r>
     <r>
       <rPr>
@@ -1012,58 +985,6 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>고양이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>:26",</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>선택</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사항으로</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">png, pdf </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
       <t>등</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1114,13 +1035,85 @@
   </si>
   <si>
     <t>로그아웃</t>
+  </si>
+  <si>
+    <t>"result":{</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin/update</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"id":""</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"name":""</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"email":""</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"password2":""</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"password1":""</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>페스워드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin/update</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin/delete</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1156,26 +1149,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="3"/>
       <charset val="129"/>
@@ -1351,7 +1324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1421,12 +1394,10 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1707,10 +1678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H24"/>
+  <dimension ref="A2:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1720,12 +1691,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="26.25" x14ac:dyDescent="0.5">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="24" t="s">
@@ -1747,7 +1718,7 @@
         <v>22</v>
       </c>
       <c r="F4" s="54" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1765,7 +1736,7 @@
       </c>
       <c r="E5" s="26"/>
       <c r="F5" s="26" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1783,7 +1754,7 @@
       </c>
       <c r="E6" s="26"/>
       <c r="F6" s="26" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1795,11 +1766,11 @@
         <v>75</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E7" s="26"/>
       <c r="F7" s="26" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1811,11 +1782,11 @@
         <v>76</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E8" s="26"/>
       <c r="F8" s="26" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1827,11 +1798,11 @@
         <v>77</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E9" s="26"/>
       <c r="F9" s="26" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1843,11 +1814,11 @@
         <v>78</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E10" s="26"/>
       <c r="F10" s="26" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1858,16 +1829,16 @@
         <v>79</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1876,14 +1847,14 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="E12" s="26"/>
       <c r="F12" s="26" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1892,14 +1863,14 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="E13" s="26"/>
       <c r="F13" s="26" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1908,16 +1879,16 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="E14" s="27" t="s">
         <v>34</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1926,16 +1897,16 @@
       </c>
       <c r="B15" s="25"/>
       <c r="C15" s="25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="E15" s="27" t="s">
         <v>34</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -1949,93 +1920,106 @@
         <v>63</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E16" s="27" t="s">
         <v>34</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="17">
-        <v>13</v>
-      </c>
+      <c r="A17" s="17"/>
       <c r="B17" s="25"/>
       <c r="C17" s="25" t="s">
-        <v>91</v>
+        <v>156</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>92</v>
+        <v>157</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="F17" s="26" t="s">
-        <v>101</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="17">
-        <v>14</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>87</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B18" s="25"/>
       <c r="C18" s="25" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>88</v>
+        <v>158</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="F18" s="26" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="17">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>137</v>
+        <v>86</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>136</v>
+        <v>69</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>139</v>
+        <v>87</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="F19" s="26" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="17">
-        <v>16</v>
-      </c>
-      <c r="B20" s="25"/>
+        <v>15</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>129</v>
+      </c>
       <c r="C20" s="25" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="F20" s="26" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
+      <c r="A21" s="17">
+        <v>16</v>
+      </c>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="22" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="17"/>
@@ -2043,7 +2027,10 @@
     <row r="23" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="17"/>
     </row>
-    <row r="24" spans="1:6" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="17"/>
+    </row>
+    <row r="25" spans="1:6" ht="12.75" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>
@@ -2058,7 +2045,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
@@ -2292,7 +2279,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A4:F88"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
@@ -2316,7 +2303,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2513,7 +2500,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2682,7 +2669,7 @@
         <v>1</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2907,7 +2894,7 @@
         <v>1</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3076,7 +3063,7 @@
         <v>1</v>
       </c>
       <c r="B76" s="26" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3242,7 +3229,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95AAA260-7D30-4FB6-AAD0-C17D7D61368F}">
   <dimension ref="A3:F75"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
@@ -3264,7 +3251,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3317,14 +3304,14 @@
     </row>
     <row r="9" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="41" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B9" s="42"/>
       <c r="D9" s="43" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="E9" s="50" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F9" s="40" t="s">
         <v>12</v>
@@ -3336,10 +3323,10 @@
       </c>
       <c r="B10" s="42"/>
       <c r="D10" s="43" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="E10" s="50" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="F10" s="40" t="s">
         <v>12</v>
@@ -3347,14 +3334,14 @@
     </row>
     <row r="11" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="41" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B11" s="42"/>
       <c r="D11" s="43" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E11" s="50" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F11" s="40" t="s">
         <v>12</v>
@@ -3365,11 +3352,11 @@
         <v>60</v>
       </c>
       <c r="B12" s="42"/>
-      <c r="D12" s="58" t="s">
-        <v>121</v>
+      <c r="D12" s="55" t="s">
+        <v>113</v>
       </c>
       <c r="E12" s="50" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="F12" s="40" t="s">
         <v>12</v>
@@ -3377,14 +3364,14 @@
     </row>
     <row r="13" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="41" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B13" s="42"/>
       <c r="D13" s="43" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E13" s="50" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F13" s="40" t="s">
         <v>12</v>
@@ -3392,14 +3379,14 @@
     </row>
     <row r="14" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="41" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B14" s="42"/>
       <c r="D14" s="43" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="E14" s="50" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="F14" s="40" t="s">
         <v>12</v>
@@ -3487,7 +3474,7 @@
     </row>
     <row r="21" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="45" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B21" s="46"/>
       <c r="C21" s="46"/>
@@ -3508,7 +3495,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3641,7 +3628,7 @@
     </row>
     <row r="35" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="41" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B35" s="42"/>
       <c r="D35" s="44"/>
@@ -3665,7 +3652,7 @@
     </row>
     <row r="37" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="41" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D37" s="43" t="s">
         <v>49</v>
@@ -3679,13 +3666,13 @@
     </row>
     <row r="38" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="41" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D38" s="43" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E38" s="44" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F38" s="40" t="s">
         <v>12</v>
@@ -3693,7 +3680,7 @@
     </row>
     <row r="39" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="45" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B39" s="46"/>
       <c r="C39" s="46"/>
@@ -3714,7 +3701,7 @@
         <v>1</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3847,7 +3834,7 @@
     </row>
     <row r="53" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="41" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B53" s="42"/>
       <c r="D53" s="44"/>
@@ -3871,7 +3858,7 @@
     </row>
     <row r="55" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="41" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="D55" s="43" t="s">
         <v>49</v>
@@ -3885,13 +3872,13 @@
     </row>
     <row r="56" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="41" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D56" s="43" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E56" s="44" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F56" s="40" t="s">
         <v>12</v>
@@ -3899,7 +3886,7 @@
     </row>
     <row r="57" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="45" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B57" s="46"/>
       <c r="C57" s="46"/>
@@ -3920,7 +3907,7 @@
         <v>1</v>
       </c>
       <c r="B60" s="27" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4053,14 +4040,14 @@
     </row>
     <row r="71" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="41" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B71" s="42"/>
-      <c r="D71" s="58" t="s">
-        <v>133</v>
+      <c r="D71" s="55" t="s">
+        <v>125</v>
       </c>
       <c r="E71" s="50" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F71" s="40"/>
     </row>
@@ -4081,7 +4068,7 @@
     </row>
     <row r="73" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="41" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="D73" s="43" t="s">
         <v>49</v>
@@ -4095,13 +4082,13 @@
     </row>
     <row r="74" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="41" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D74" s="43" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E74" s="44" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F74" s="40" t="s">
         <v>12</v>
@@ -4109,7 +4096,7 @@
     </row>
     <row r="75" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="45" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B75" s="46"/>
       <c r="C75" s="46"/>
@@ -4128,8 +4115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CF49A97-6167-4D72-A41C-8943E6625A7F}">
   <dimension ref="A2:F40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4155,7 +4142,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4199,136 +4186,132 @@
       <c r="F7" s="40"/>
     </row>
     <row r="8" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="42"/>
-      <c r="D8" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="40" t="s">
-        <v>12</v>
-      </c>
+      <c r="A8" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="40"/>
     </row>
     <row r="9" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="40" t="s">
-        <v>12</v>
-      </c>
+      <c r="A9" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
     </row>
     <row r="10" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" s="40" t="s">
-        <v>12</v>
+      <c r="A10" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="40" t="s">
-        <v>12</v>
-      </c>
+      <c r="A11" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="49"/>
     </row>
     <row r="12" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="44" t="s">
-        <v>62</v>
+        <v>17</v>
+      </c>
+      <c r="B12" s="42"/>
+      <c r="D12" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="50" t="s">
+        <v>16</v>
       </c>
       <c r="F12" s="40" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="40"/>
+      <c r="A13" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="42"/>
+      <c r="D13" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
+      <c r="A14" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="B14" s="42"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="40"/>
     </row>
     <row r="15" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="36" t="s">
-        <v>9</v>
+      <c r="A15" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="42"/>
+      <c r="D15" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="40" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="49"/>
+      <c r="A16" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="40" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="17" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="42"/>
-      <c r="D17" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="50" t="s">
-        <v>16</v>
+        <v>56</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="44" t="s">
+        <v>59</v>
       </c>
       <c r="F17" s="40" t="s">
         <v>12</v>
@@ -4336,211 +4319,284 @@
     </row>
     <row r="18" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="42"/>
-      <c r="D18" s="44" t="s">
-        <v>20</v>
+        <v>38</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>42</v>
       </c>
       <c r="E18" s="44" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="F18" s="40" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="52"/>
-    </row>
-    <row r="21" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="32" t="s">
+      <c r="A19" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="52"/>
+    </row>
+    <row r="22" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="33" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" s="27" t="s">
-        <v>94</v>
+      <c r="B22" s="33" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="35" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>35</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-    </row>
-    <row r="25" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="36" t="s">
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+    </row>
+    <row r="26" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="36" t="s">
+      <c r="B26" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="36" t="s">
+      <c r="C26" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="36" t="s">
+      <c r="D26" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="36" t="s">
+      <c r="E26" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="36" t="s">
+      <c r="F26" s="36" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="37" t="s">
+    <row r="27" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="40"/>
-    </row>
-    <row r="27" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="B27" s="42"/>
-      <c r="D27" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="E27" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="F27" s="40" t="s">
-        <v>12</v>
-      </c>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="40"/>
     </row>
     <row r="28" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="B28" s="42"/>
+      <c r="D28" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="E28" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="F28" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="B29" s="42"/>
+      <c r="D29" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="E29" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="F29" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="B30" s="42"/>
+      <c r="D30" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="E30" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="F30" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="B31" s="42"/>
+      <c r="D31" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="E31" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="F31" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="46"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="40"/>
-    </row>
-    <row r="29" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="35" t="s">
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="40"/>
+    </row>
+    <row r="33" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-    </row>
-    <row r="30" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="36" t="s">
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+    </row>
+    <row r="34" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="36" t="s">
+      <c r="B34" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="36" t="s">
+      <c r="C34" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="36" t="s">
+      <c r="D34" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="E30" s="36" t="s">
+      <c r="E34" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="F30" s="36" t="s">
+      <c r="F34" s="36" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="37" t="s">
+    <row r="35" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="49"/>
-    </row>
-    <row r="32" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="41" t="s">
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="49"/>
+    </row>
+    <row r="36" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="42"/>
-      <c r="D32" s="44" t="s">
+      <c r="B36" s="42"/>
+      <c r="D36" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="50" t="s">
+      <c r="E36" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="F32" s="40" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="41" t="s">
+      <c r="F36" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="42"/>
-      <c r="D33" s="44" t="s">
+      <c r="B37" s="42"/>
+      <c r="D37" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="44" t="s">
+      <c r="E37" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="F33" s="40" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="46"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="52"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="55" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="56" t="s">
-        <v>109</v>
-      </c>
+      <c r="F37" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="B38" s="42"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="40"/>
+    </row>
+    <row r="39" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="B39" s="42"/>
+      <c r="D39" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="E39" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="B40" s="46"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="52"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4715,7 +4771,7 @@
     </row>
     <row r="15" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="41" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B15" s="42"/>
       <c r="D15" s="44"/>
@@ -4724,14 +4780,14 @@
     </row>
     <row r="16" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="41" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B16" s="42"/>
       <c r="D16" s="44" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E16" s="50" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F16" s="40" t="s">
         <v>12</v>
@@ -4739,7 +4795,7 @@
     </row>
     <row r="17" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="45" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B17" s="46"/>
       <c r="C17" s="46"/>
@@ -4768,7 +4824,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4776,7 +4832,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4784,7 +4840,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4829,11 +4885,11 @@
     </row>
     <row r="8" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="41" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B8" s="42"/>
       <c r="D8" s="44" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E8" s="44" t="s">
         <v>11</v>
@@ -4844,13 +4900,13 @@
     </row>
     <row r="9" spans="1:6" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="41" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D9" s="44" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E9" s="44" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="F9" s="40" t="s">
         <v>12</v>
@@ -4955,7 +5011,7 @@
         <v>0</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.2">
@@ -4963,7 +5019,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.2">
@@ -4971,7 +5027,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.2">
